--- a/results/I3_N5_M2_T45_C150_DepCentral_s4_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>855.0155370040858</v>
+        <v>297.3343409182374</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.135999917984009</v>
+        <v>1.016000032424927</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.73074255039767</v>
+        <v>29.33434091823748</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.067071980352781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.611866433451862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>681.4000000005891</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.34</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,50 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -813,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -824,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -896,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.46902814888774</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -904,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>36.96930412595117</v>
       </c>
     </row>
     <row r="5">
@@ -912,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33.15868643584628</v>
+        <v>41.82484646040542</v>
       </c>
     </row>
     <row r="6">
@@ -920,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>33.71927412272879</v>
       </c>
     </row>
     <row r="7">
@@ -928,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -958,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -986,118 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8400000000129</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1210,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>163.6950000000106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1221,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>161.6800000000094</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1232,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>160.41500000001</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1243,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>151.6050000000105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1254,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>139.9800000000123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -1265,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>150.4750000000095</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
@@ -1276,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>153.65</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
@@ -1287,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>160.3600000000115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -1298,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>153.7600000000111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17">
@@ -1309,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>195.9750000000331</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
@@ -1320,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>208.8750000000273</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19">
@@ -1331,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>210.6550000000316</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
@@ -1342,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>214.2200000000303</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -1353,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>209.7400000000307</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
@@ -1364,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>59.47000000001027</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23">
@@ -1375,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>67.50500000001011</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24">
@@ -1386,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.01500000001216</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25">
@@ -1397,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>66.88500000001113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26">
@@ -1408,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>68.4900000000107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27">
@@ -1419,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.89500000001136</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -1430,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.82000000001063</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -1441,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.1750000000102</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -1452,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68500000001041</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -1463,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
@@ -1474,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>195.975000000047</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33">
@@ -1485,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>208.8750000000402</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34">
@@ -1496,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>210.6550000000455</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35">
@@ -1507,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>214.2200000000443</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36">
@@ -1518,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>209.7400000000446</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37">
@@ -1529,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>163.8400000000183</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -1540,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>163.695000000016</v>
+        <v>136</v>
       </c>
     </row>
     <row r="39">
@@ -1551,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>161.6800000000151</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40">
@@ -1562,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>160.4150000000166</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41">
@@ -1573,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>151.6050000000159</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>45.97500000004578</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -1631,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>58.87500000003911</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1642,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>60.6550000000442</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1653,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>64.22000000004289</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1664,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>59.74000000004332</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1675,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.84000000001777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1686,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.69500000001551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1697,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>11.68000000001462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1708,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>10.41500000001599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1719,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1.605000000015366</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1766,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1777,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1788,7 +1632,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1799,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1810,7 +1654,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1931,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1942,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1953,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1964,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1975,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1986,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1997,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2008,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2019,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2030,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2044,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2071,7 +1915,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2082,7 +1926,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2093,7 +1937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2104,7 +1948,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2115,111 +1959,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
